--- a/Code/Results/Cases/Case_1_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.0106273499592</v>
+        <v>1.050374230381654</v>
       </c>
       <c r="D2">
-        <v>1.044366796583742</v>
+        <v>1.061073235376192</v>
       </c>
       <c r="E2">
-        <v>1.015049695260469</v>
+        <v>1.047415766775655</v>
       </c>
       <c r="F2">
-        <v>1.04160314507508</v>
+        <v>1.067764813040254</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051066499815565</v>
+        <v>1.046890175727271</v>
       </c>
       <c r="J2">
-        <v>1.032494779403009</v>
+        <v>1.055407722577377</v>
       </c>
       <c r="K2">
-        <v>1.055240789995268</v>
+        <v>1.063798287502832</v>
       </c>
       <c r="L2">
-        <v>1.026303271145684</v>
+        <v>1.050178466896383</v>
       </c>
       <c r="M2">
-        <v>1.05251178270075</v>
+        <v>1.070471799631482</v>
       </c>
       <c r="N2">
-        <v>1.033961040418568</v>
+        <v>1.056906522600394</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017501336757618</v>
+        <v>1.051758728536194</v>
       </c>
       <c r="D3">
-        <v>1.04893929696344</v>
+        <v>1.062001342463486</v>
       </c>
       <c r="E3">
-        <v>1.020768374617172</v>
+        <v>1.048609969482911</v>
       </c>
       <c r="F3">
-        <v>1.047203709454102</v>
+        <v>1.068940439373152</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053352897950195</v>
+        <v>1.047278141525119</v>
       </c>
       <c r="J3">
-        <v>1.037526007343769</v>
+        <v>1.056439752721359</v>
       </c>
       <c r="K3">
-        <v>1.058982061914622</v>
+        <v>1.064540657860557</v>
       </c>
       <c r="L3">
-        <v>1.031142241380711</v>
+        <v>1.05118351795605</v>
       </c>
       <c r="M3">
-        <v>1.05726623782804</v>
+        <v>1.071462379341765</v>
       </c>
       <c r="N3">
-        <v>1.038999413280094</v>
+        <v>1.057940018345557</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021827349187154</v>
+        <v>1.052653807882161</v>
       </c>
       <c r="D4">
-        <v>1.051823564282165</v>
+        <v>1.062601358422196</v>
       </c>
       <c r="E4">
-        <v>1.024373004471497</v>
+        <v>1.049382206800262</v>
       </c>
       <c r="F4">
-        <v>1.050738373347188</v>
+        <v>1.069700937488646</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054782387731906</v>
+        <v>1.047527620201299</v>
       </c>
       <c r="J4">
-        <v>1.040688722622687</v>
+        <v>1.057106310577251</v>
       </c>
       <c r="K4">
-        <v>1.061334308995728</v>
+        <v>1.06501986147795</v>
       </c>
       <c r="L4">
-        <v>1.034185905715844</v>
+        <v>1.051832793764083</v>
       </c>
       <c r="M4">
-        <v>1.060260695890633</v>
+        <v>1.072102560726352</v>
       </c>
       <c r="N4">
-        <v>1.042166619977476</v>
+        <v>1.05860752279006</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023618312327842</v>
+        <v>1.053029916246423</v>
       </c>
       <c r="D5">
-        <v>1.053019085190733</v>
+        <v>1.062853479300421</v>
       </c>
       <c r="E5">
-        <v>1.025866598347336</v>
+        <v>1.049706740777669</v>
       </c>
       <c r="F5">
-        <v>1.052203984409221</v>
+        <v>1.070020602654865</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055371864208394</v>
+        <v>1.047632128383797</v>
       </c>
       <c r="J5">
-        <v>1.041997158034039</v>
+        <v>1.057386239015731</v>
       </c>
       <c r="K5">
-        <v>1.062307476940337</v>
+        <v>1.065221042517914</v>
       </c>
       <c r="L5">
-        <v>1.035445513578862</v>
+        <v>1.052105498548225</v>
       </c>
       <c r="M5">
-        <v>1.061500830894846</v>
+        <v>1.072371505916007</v>
       </c>
       <c r="N5">
-        <v>1.043476913517191</v>
+        <v>1.05888784875903</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023917440393195</v>
+        <v>1.053093055898058</v>
       </c>
       <c r="D6">
-        <v>1.053218842198008</v>
+        <v>1.062895804166542</v>
       </c>
       <c r="E6">
-        <v>1.026116132657103</v>
+        <v>1.049761224831315</v>
       </c>
       <c r="F6">
-        <v>1.052448901006911</v>
+        <v>1.070074273077971</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055470179960714</v>
+        <v>1.047649653946441</v>
       </c>
       <c r="J6">
-        <v>1.042215637833248</v>
+        <v>1.05743322317064</v>
       </c>
       <c r="K6">
-        <v>1.062469974120265</v>
+        <v>1.06525480554786</v>
       </c>
       <c r="L6">
-        <v>1.035655864989569</v>
+        <v>1.052151272259498</v>
       </c>
       <c r="M6">
-        <v>1.061707981183616</v>
+        <v>1.072416652086493</v>
       </c>
       <c r="N6">
-        <v>1.043695703582775</v>
+        <v>1.058934899636828</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02185138704325</v>
+        <v>1.052658834173863</v>
       </c>
       <c r="D7">
-        <v>1.051839604774123</v>
+        <v>1.062604727766426</v>
       </c>
       <c r="E7">
-        <v>1.024393046145347</v>
+        <v>1.04938654368554</v>
       </c>
       <c r="F7">
-        <v>1.050758035636506</v>
+        <v>1.069705209057054</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054790308848404</v>
+        <v>1.047529018107672</v>
       </c>
       <c r="J7">
-        <v>1.040706287849836</v>
+        <v>1.057110052140169</v>
       </c>
       <c r="K7">
-        <v>1.061347373370335</v>
+        <v>1.065022550752166</v>
       </c>
       <c r="L7">
-        <v>1.034202813783165</v>
+        <v>1.051836438640539</v>
       </c>
       <c r="M7">
-        <v>1.060277339116154</v>
+        <v>1.072106155117637</v>
       </c>
       <c r="N7">
-        <v>1.042184210149262</v>
+        <v>1.058611269666426</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012976626193269</v>
+        <v>1.050842293017347</v>
       </c>
       <c r="D8">
-        <v>1.045928007569731</v>
+        <v>1.061387004375528</v>
       </c>
       <c r="E8">
-        <v>1.017002878623613</v>
+        <v>1.047819456860727</v>
       </c>
       <c r="F8">
-        <v>1.043514999403374</v>
+        <v>1.068162166430128</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051849844382323</v>
+        <v>1.047021614484425</v>
       </c>
       <c r="J8">
-        <v>1.034214985717519</v>
+        <v>1.055756759506768</v>
       </c>
       <c r="K8">
-        <v>1.056519818310639</v>
+        <v>1.064049416034929</v>
       </c>
       <c r="L8">
-        <v>1.027957357116781</v>
+        <v>1.050518349697924</v>
       </c>
       <c r="M8">
-        <v>1.054136109273228</v>
+        <v>1.070806735476143</v>
       </c>
       <c r="N8">
-        <v>1.035683689623355</v>
+        <v>1.057256055202261</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9963307698585618</v>
+        <v>1.047635108630005</v>
       </c>
       <c r="D9">
-        <v>1.034901795167285</v>
+        <v>1.059237087622264</v>
       </c>
       <c r="E9">
-        <v>1.003191810419701</v>
+        <v>1.045054143650787</v>
       </c>
       <c r="F9">
-        <v>1.030018543758696</v>
+        <v>1.065441414623123</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046262129675127</v>
+        <v>1.046115499042419</v>
       </c>
       <c r="J9">
-        <v>1.022013766785613</v>
+        <v>1.053362489897447</v>
       </c>
       <c r="K9">
-        <v>1.047452903048976</v>
+        <v>1.062325680829182</v>
       </c>
       <c r="L9">
-        <v>1.016233314120807</v>
+        <v>1.048187465801651</v>
       </c>
       <c r="M9">
-        <v>1.042642666893378</v>
+        <v>1.068510849922197</v>
       </c>
       <c r="N9">
-        <v>1.023465143561066</v>
+        <v>1.054858385455468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9844416558602819</v>
+        <v>1.045492523133558</v>
       </c>
       <c r="D10">
-        <v>1.027081101633443</v>
+        <v>1.057800940769615</v>
       </c>
       <c r="E10">
-        <v>0.9933682889576972</v>
+        <v>1.043207777050172</v>
       </c>
       <c r="F10">
-        <v>1.020451317971401</v>
+        <v>1.063626286033895</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04222732337208</v>
+        <v>1.045503280526654</v>
       </c>
       <c r="J10">
-        <v>1.013286453045188</v>
+        <v>1.051759662552449</v>
       </c>
       <c r="K10">
-        <v>1.040978027869413</v>
+        <v>1.061170413710465</v>
       </c>
       <c r="L10">
-        <v>1.007858322312043</v>
+        <v>1.046627819218497</v>
       </c>
       <c r="M10">
-        <v>1.03446088113592</v>
+        <v>1.066975998506249</v>
       </c>
       <c r="N10">
-        <v>1.014725436034092</v>
+        <v>1.053253281911793</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9790761743890289</v>
+        <v>1.044563636547135</v>
       </c>
       <c r="D11">
-        <v>1.023567823882754</v>
+        <v>1.05717837183402</v>
       </c>
       <c r="E11">
-        <v>0.988946402914137</v>
+        <v>1.042407565210434</v>
       </c>
       <c r="F11">
-        <v>1.016153943137615</v>
+        <v>1.062839975953862</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040397397501766</v>
+        <v>1.045236236137125</v>
       </c>
       <c r="J11">
-        <v>1.009346080472871</v>
+        <v>1.051063999581259</v>
       </c>
       <c r="K11">
-        <v>1.038058563416231</v>
+        <v>1.060668699276563</v>
       </c>
       <c r="L11">
-        <v>1.004079828475821</v>
+        <v>1.045951076266761</v>
       </c>
       <c r="M11">
-        <v>1.030777516877828</v>
+        <v>1.066310350221095</v>
       </c>
       <c r="N11">
-        <v>1.010779467680756</v>
+        <v>1.05255663101939</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9770476578868749</v>
+        <v>1.044218430823565</v>
       </c>
       <c r="D12">
-        <v>1.022242293106258</v>
+        <v>1.056947013751763</v>
       </c>
       <c r="E12">
-        <v>0.9872765050180845</v>
+        <v>1.042110218347023</v>
       </c>
       <c r="F12">
-        <v>1.014532576311598</v>
+        <v>1.062547850289398</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039704331738888</v>
+        <v>1.04513674959626</v>
       </c>
       <c r="J12">
-        <v>1.00785619993326</v>
+        <v>1.050805350861749</v>
       </c>
       <c r="K12">
-        <v>1.036955421720135</v>
+        <v>1.060482116458609</v>
       </c>
       <c r="L12">
-        <v>1.002651595334588</v>
+        <v>1.045699488986054</v>
       </c>
       <c r="M12">
-        <v>1.029386552619573</v>
+        <v>1.066062938752827</v>
       </c>
       <c r="N12">
-        <v>1.009287471339888</v>
+        <v>1.052297614989031</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9774844396203025</v>
+        <v>1.04429248667379</v>
       </c>
       <c r="D13">
-        <v>1.022527579195091</v>
+        <v>1.056996645775589</v>
       </c>
       <c r="E13">
-        <v>0.987635981292722</v>
+        <v>1.042174005415621</v>
       </c>
       <c r="F13">
-        <v>1.014881534855956</v>
+        <v>1.062610514775687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039853616486193</v>
+        <v>1.045158103140796</v>
       </c>
       <c r="J13">
-        <v>1.00817700701429</v>
+        <v>1.050860843198968</v>
       </c>
       <c r="K13">
-        <v>1.037192919509809</v>
+        <v>1.060522149262741</v>
       </c>
       <c r="L13">
-        <v>1.002959108071036</v>
+        <v>1.04575346509115</v>
       </c>
       <c r="M13">
-        <v>1.029685979856257</v>
+        <v>1.066116016638817</v>
       </c>
       <c r="N13">
-        <v>1.009608734003769</v>
+        <v>1.052353186131734</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9789092393789284</v>
+        <v>1.044535105355307</v>
       </c>
       <c r="D14">
-        <v>1.023458683329048</v>
+        <v>1.057159249922338</v>
       </c>
       <c r="E14">
-        <v>0.9888089410802697</v>
+        <v>1.042382988744974</v>
       </c>
       <c r="F14">
-        <v>1.016020444778695</v>
+        <v>1.062815829895939</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040340386408541</v>
+        <v>1.04522801856192</v>
       </c>
       <c r="J14">
-        <v>1.009223474411737</v>
+        <v>1.051042624689768</v>
       </c>
       <c r="K14">
-        <v>1.037967767508302</v>
+        <v>1.060653280858229</v>
       </c>
       <c r="L14">
-        <v>1.003962286497516</v>
+        <v>1.045930284386897</v>
       </c>
       <c r="M14">
-        <v>1.030663014791801</v>
+        <v>1.066289902392647</v>
       </c>
       <c r="N14">
-        <v>1.010656687504952</v>
+        <v>1.052535225773102</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9797823046699804</v>
+        <v>1.044684567255428</v>
       </c>
       <c r="D15">
-        <v>1.024029598013083</v>
+        <v>1.057259421300896</v>
       </c>
       <c r="E15">
-        <v>0.989527939767035</v>
+        <v>1.042511735238223</v>
       </c>
       <c r="F15">
-        <v>1.016718774658471</v>
+        <v>1.062942323930897</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040638503591506</v>
+        <v>1.04527105671104</v>
       </c>
       <c r="J15">
-        <v>1.009864695122474</v>
+        <v>1.051154593217604</v>
       </c>
       <c r="K15">
-        <v>1.038442653841918</v>
+        <v>1.060734045655613</v>
       </c>
       <c r="L15">
-        <v>1.004577040430801</v>
+        <v>1.046039200016663</v>
       </c>
       <c r="M15">
-        <v>1.031261923861906</v>
+        <v>1.066397017854852</v>
       </c>
       <c r="N15">
-        <v>1.011298818822648</v>
+        <v>1.052647353309089</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9847929268442216</v>
+        <v>1.045554145923651</v>
       </c>
       <c r="D16">
-        <v>1.027311470504464</v>
+        <v>1.057842243542784</v>
       </c>
       <c r="E16">
-        <v>0.9936580335454772</v>
+        <v>1.043260868907142</v>
       </c>
       <c r="F16">
-        <v>1.020733104746989</v>
+        <v>1.063678463277866</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042346949421109</v>
+        <v>1.045520962182018</v>
       </c>
       <c r="J16">
-        <v>1.013544396496548</v>
+        <v>1.051805796776488</v>
       </c>
       <c r="K16">
-        <v>1.041169233567697</v>
+        <v>1.061203679577034</v>
       </c>
       <c r="L16">
-        <v>1.00810572853817</v>
+        <v>1.046672702493968</v>
       </c>
       <c r="M16">
-        <v>1.034702232874861</v>
+        <v>1.06702015309256</v>
       </c>
       <c r="N16">
-        <v>1.014983745794741</v>
+        <v>1.053299481651722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9878758242208676</v>
+        <v>1.046099302331463</v>
       </c>
       <c r="D17">
-        <v>1.029335140049827</v>
+        <v>1.058207641675963</v>
       </c>
       <c r="E17">
-        <v>0.9962022569853425</v>
+        <v>1.043730584340429</v>
       </c>
       <c r="F17">
-        <v>1.02320850098455</v>
+        <v>1.064140128988907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043395828771728</v>
+        <v>1.045677198269091</v>
       </c>
       <c r="J17">
-        <v>1.015808023854929</v>
+        <v>1.05221384090994</v>
       </c>
       <c r="K17">
-        <v>1.042847651796038</v>
+        <v>1.061497871939126</v>
       </c>
       <c r="L17">
-        <v>1.010277203678604</v>
+        <v>1.047069702962909</v>
       </c>
       <c r="M17">
-        <v>1.036821480512751</v>
+        <v>1.067410747031028</v>
       </c>
       <c r="N17">
-        <v>1.017250587763611</v>
+        <v>1.053708105254646</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9896532596691543</v>
+        <v>1.046417173915474</v>
       </c>
       <c r="D18">
-        <v>1.030503379945514</v>
+        <v>1.058420704056576</v>
       </c>
       <c r="E18">
-        <v>0.9976701837753479</v>
+        <v>1.044004491923297</v>
       </c>
       <c r="F18">
-        <v>1.024637569265053</v>
+        <v>1.064409377463675</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04399969698624</v>
+        <v>1.045768140112615</v>
       </c>
       <c r="J18">
-        <v>1.017112934796504</v>
+        <v>1.052451689321922</v>
       </c>
       <c r="K18">
-        <v>1.043815568597914</v>
+        <v>1.061669327073935</v>
       </c>
       <c r="L18">
-        <v>1.011529254431818</v>
+        <v>1.047301131237981</v>
       </c>
       <c r="M18">
-        <v>1.038044158873938</v>
+        <v>1.067638472982176</v>
       </c>
       <c r="N18">
-        <v>1.018557351828399</v>
+        <v>1.053946291438655</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9902558787193138</v>
+        <v>1.046525541606415</v>
       </c>
       <c r="D19">
-        <v>1.030899704121745</v>
+        <v>1.058493341316927</v>
       </c>
       <c r="E19">
-        <v>0.9981680431315434</v>
+        <v>1.044097875663897</v>
       </c>
       <c r="F19">
-        <v>1.02512239021129</v>
+        <v>1.064501178670109</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044204282031612</v>
+        <v>1.045799117082406</v>
       </c>
       <c r="J19">
-        <v>1.017555316579122</v>
+        <v>1.052532763000692</v>
       </c>
       <c r="K19">
-        <v>1.044143762372246</v>
+        <v>1.061727764767672</v>
       </c>
       <c r="L19">
-        <v>1.011953759970841</v>
+        <v>1.047380019445144</v>
       </c>
       <c r="M19">
-        <v>1.038458828325065</v>
+        <v>1.067716104615249</v>
       </c>
       <c r="N19">
-        <v>1.019000361843891</v>
+        <v>1.054027480251348</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9875472261676257</v>
+        <v>1.04604082351754</v>
       </c>
       <c r="D20">
-        <v>1.029119284558433</v>
+        <v>1.05816844498009</v>
       </c>
       <c r="E20">
-        <v>0.9959309633380055</v>
+        <v>1.043680195536513</v>
       </c>
       <c r="F20">
-        <v>1.022944457012932</v>
+        <v>1.064090600096205</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043284119922755</v>
+        <v>1.045660455074593</v>
       </c>
       <c r="J20">
-        <v>1.015566767247836</v>
+        <v>1.052170077887001</v>
       </c>
       <c r="K20">
-        <v>1.042668728168141</v>
+        <v>1.061466322615926</v>
       </c>
       <c r="L20">
-        <v>1.010045741202033</v>
+        <v>1.04702712260035</v>
       </c>
       <c r="M20">
-        <v>1.036595507276507</v>
+        <v>1.067368850453435</v>
       </c>
       <c r="N20">
-        <v>1.017008988544464</v>
+        <v>1.053664280083195</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9784906771778561</v>
+        <v>1.044463665101776</v>
       </c>
       <c r="D21">
-        <v>1.023185076195422</v>
+        <v>1.057111370057839</v>
       </c>
       <c r="E21">
-        <v>0.9884643087857751</v>
+        <v>1.042321451502173</v>
       </c>
       <c r="F21">
-        <v>1.015685774148687</v>
+        <v>1.062755371254466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040197421114321</v>
+        <v>1.045207438350493</v>
       </c>
       <c r="J21">
-        <v>1.008916057765123</v>
+        <v>1.050989101463288</v>
       </c>
       <c r="K21">
-        <v>1.037740122312285</v>
+        <v>1.060614672063841</v>
       </c>
       <c r="L21">
-        <v>1.003667574436133</v>
+        <v>1.045878221470622</v>
       </c>
       <c r="M21">
-        <v>1.030375946124282</v>
+        <v>1.066238701812128</v>
       </c>
       <c r="N21">
-        <v>1.010348834291438</v>
+        <v>1.0524816265375</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9725891697953725</v>
+        <v>1.043471022551425</v>
       </c>
       <c r="D22">
-        <v>1.019334288123423</v>
+        <v>1.056446117784541</v>
       </c>
       <c r="E22">
-        <v>0.9836098787471211</v>
+        <v>1.041466502011022</v>
       </c>
       <c r="F22">
-        <v>1.010975457887274</v>
+        <v>1.061915539704787</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03817892556542</v>
+        <v>1.044920904935527</v>
       </c>
       <c r="J22">
-        <v>1.004581442932624</v>
+        <v>1.050245134917527</v>
       </c>
       <c r="K22">
-        <v>1.034532218867872</v>
+        <v>1.060077910096316</v>
       </c>
       <c r="L22">
-        <v>0.9995131728603919</v>
+        <v>1.045154617058369</v>
       </c>
       <c r="M22">
-        <v>1.02633257991485</v>
+        <v>1.065527205123488</v>
       </c>
       <c r="N22">
-        <v>1.006008063808691</v>
+        <v>1.05173660347391</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9757383721184787</v>
+        <v>1.043997339778032</v>
       </c>
       <c r="D23">
-        <v>1.021387551272068</v>
+        <v>1.056798840705002</v>
       </c>
       <c r="E23">
-        <v>0.9861992363909144</v>
+        <v>1.041919790149747</v>
       </c>
       <c r="F23">
-        <v>1.013487059601629</v>
+        <v>1.062360781619238</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039256670017032</v>
+        <v>1.045072963704943</v>
       </c>
       <c r="J23">
-        <v>1.006894544221712</v>
+        <v>1.050639663444488</v>
       </c>
       <c r="K23">
-        <v>1.036243612809158</v>
+        <v>1.060362581224843</v>
       </c>
       <c r="L23">
-        <v>1.001729856961092</v>
+        <v>1.045538332644497</v>
       </c>
       <c r="M23">
-        <v>1.028489251359691</v>
+        <v>1.065904471784832</v>
       </c>
       <c r="N23">
-        <v>1.008324449966925</v>
+        <v>1.052131692276633</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9876957694451267</v>
+        <v>1.046067247912584</v>
       </c>
       <c r="D24">
-        <v>1.029216857746588</v>
+        <v>1.058186156490395</v>
       </c>
       <c r="E24">
-        <v>0.9960535987801339</v>
+        <v>1.043702964282554</v>
       </c>
       <c r="F24">
-        <v>1.023063812679335</v>
+        <v>1.064112980173785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043334620767781</v>
+        <v>1.045668021184396</v>
       </c>
       <c r="J24">
-        <v>1.015675828242002</v>
+        <v>1.052189852997679</v>
       </c>
       <c r="K24">
-        <v>1.042749610184554</v>
+        <v>1.061480578836685</v>
       </c>
       <c r="L24">
-        <v>1.010150373906639</v>
+        <v>1.04704636325147</v>
       </c>
       <c r="M24">
-        <v>1.036697656273831</v>
+        <v>1.067387782025087</v>
       </c>
       <c r="N24">
-        <v>1.017118204417752</v>
+        <v>1.053684083276799</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000764574487718</v>
+        <v>1.048465007932631</v>
       </c>
       <c r="D25">
-        <v>1.037830380635083</v>
+        <v>1.05979339163353</v>
       </c>
       <c r="E25">
-        <v>1.006864076942797</v>
+        <v>1.045769526631682</v>
       </c>
       <c r="F25">
-        <v>1.033602025933438</v>
+        <v>1.066145011804363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047758367920317</v>
+        <v>1.046351181468193</v>
       </c>
       <c r="J25">
-        <v>1.025266235019753</v>
+        <v>1.05398262320949</v>
       </c>
       <c r="K25">
-        <v>1.049868500292087</v>
+        <v>1.062772377710316</v>
       </c>
       <c r="L25">
-        <v>1.019356763325731</v>
+        <v>1.048791050651567</v>
       </c>
       <c r="M25">
-        <v>1.045700183075655</v>
+        <v>1.069105132721935</v>
       </c>
       <c r="N25">
-        <v>1.026722230673162</v>
+        <v>1.055479399427945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_143/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_143/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050374230381654</v>
+        <v>1.010627349959201</v>
       </c>
       <c r="D2">
-        <v>1.061073235376192</v>
+        <v>1.044366796583742</v>
       </c>
       <c r="E2">
-        <v>1.047415766775655</v>
+        <v>1.015049695260469</v>
       </c>
       <c r="F2">
-        <v>1.067764813040254</v>
+        <v>1.04160314507508</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046890175727271</v>
+        <v>1.051066499815565</v>
       </c>
       <c r="J2">
-        <v>1.055407722577377</v>
+        <v>1.032494779403009</v>
       </c>
       <c r="K2">
-        <v>1.063798287502832</v>
+        <v>1.055240789995269</v>
       </c>
       <c r="L2">
-        <v>1.050178466896383</v>
+        <v>1.026303271145684</v>
       </c>
       <c r="M2">
-        <v>1.070471799631482</v>
+        <v>1.052511782700751</v>
       </c>
       <c r="N2">
-        <v>1.056906522600394</v>
+        <v>1.033961040418568</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051758728536194</v>
+        <v>1.017501336757618</v>
       </c>
       <c r="D3">
-        <v>1.062001342463486</v>
+        <v>1.048939296963439</v>
       </c>
       <c r="E3">
-        <v>1.048609969482911</v>
+        <v>1.020768374617172</v>
       </c>
       <c r="F3">
-        <v>1.068940439373152</v>
+        <v>1.047203709454102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047278141525119</v>
+        <v>1.053352897950195</v>
       </c>
       <c r="J3">
-        <v>1.056439752721359</v>
+        <v>1.03752600734377</v>
       </c>
       <c r="K3">
-        <v>1.064540657860557</v>
+        <v>1.058982061914621</v>
       </c>
       <c r="L3">
-        <v>1.05118351795605</v>
+        <v>1.031142241380712</v>
       </c>
       <c r="M3">
-        <v>1.071462379341765</v>
+        <v>1.057266237828039</v>
       </c>
       <c r="N3">
-        <v>1.057940018345557</v>
+        <v>1.038999413280094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052653807882161</v>
+        <v>1.021827349187155</v>
       </c>
       <c r="D4">
-        <v>1.062601358422196</v>
+        <v>1.051823564282166</v>
       </c>
       <c r="E4">
-        <v>1.049382206800262</v>
+        <v>1.024373004471498</v>
       </c>
       <c r="F4">
-        <v>1.069700937488646</v>
+        <v>1.050738373347189</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047527620201299</v>
+        <v>1.054782387731906</v>
       </c>
       <c r="J4">
-        <v>1.057106310577251</v>
+        <v>1.040688722622688</v>
       </c>
       <c r="K4">
-        <v>1.06501986147795</v>
+        <v>1.061334308995728</v>
       </c>
       <c r="L4">
-        <v>1.051832793764083</v>
+        <v>1.034185905715844</v>
       </c>
       <c r="M4">
-        <v>1.072102560726352</v>
+        <v>1.060260695890634</v>
       </c>
       <c r="N4">
-        <v>1.05860752279006</v>
+        <v>1.042166619977477</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053029916246423</v>
+        <v>1.023618312327842</v>
       </c>
       <c r="D5">
-        <v>1.062853479300421</v>
+        <v>1.053019085190733</v>
       </c>
       <c r="E5">
-        <v>1.049706740777669</v>
+        <v>1.025866598347335</v>
       </c>
       <c r="F5">
-        <v>1.070020602654865</v>
+        <v>1.052203984409221</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047632128383797</v>
+        <v>1.055371864208394</v>
       </c>
       <c r="J5">
-        <v>1.057386239015731</v>
+        <v>1.041997158034038</v>
       </c>
       <c r="K5">
-        <v>1.065221042517914</v>
+        <v>1.062307476940336</v>
       </c>
       <c r="L5">
-        <v>1.052105498548225</v>
+        <v>1.035445513578862</v>
       </c>
       <c r="M5">
-        <v>1.072371505916007</v>
+        <v>1.061500830894846</v>
       </c>
       <c r="N5">
-        <v>1.05888784875903</v>
+        <v>1.043476913517191</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053093055898058</v>
+        <v>1.023917440393196</v>
       </c>
       <c r="D6">
-        <v>1.062895804166542</v>
+        <v>1.053218842198008</v>
       </c>
       <c r="E6">
-        <v>1.049761224831315</v>
+        <v>1.026116132657103</v>
       </c>
       <c r="F6">
-        <v>1.070074273077971</v>
+        <v>1.052448901006912</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047649653946441</v>
+        <v>1.055470179960714</v>
       </c>
       <c r="J6">
-        <v>1.05743322317064</v>
+        <v>1.042215637833248</v>
       </c>
       <c r="K6">
-        <v>1.06525480554786</v>
+        <v>1.062469974120266</v>
       </c>
       <c r="L6">
-        <v>1.052151272259498</v>
+        <v>1.035655864989569</v>
       </c>
       <c r="M6">
-        <v>1.072416652086493</v>
+        <v>1.061707981183617</v>
       </c>
       <c r="N6">
-        <v>1.058934899636828</v>
+        <v>1.043695703582776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052658834173863</v>
+        <v>1.021851387043249</v>
       </c>
       <c r="D7">
-        <v>1.062604727766426</v>
+        <v>1.051839604774123</v>
       </c>
       <c r="E7">
-        <v>1.04938654368554</v>
+        <v>1.024393046145346</v>
       </c>
       <c r="F7">
-        <v>1.069705209057054</v>
+        <v>1.050758035636505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047529018107672</v>
+        <v>1.054790308848404</v>
       </c>
       <c r="J7">
-        <v>1.057110052140169</v>
+        <v>1.040706287849835</v>
       </c>
       <c r="K7">
-        <v>1.065022550752166</v>
+        <v>1.061347373370334</v>
       </c>
       <c r="L7">
-        <v>1.051836438640539</v>
+        <v>1.034202813783164</v>
       </c>
       <c r="M7">
-        <v>1.072106155117637</v>
+        <v>1.060277339116154</v>
       </c>
       <c r="N7">
-        <v>1.058611269666426</v>
+        <v>1.042184210149261</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050842293017347</v>
+        <v>1.012976626193268</v>
       </c>
       <c r="D8">
-        <v>1.061387004375528</v>
+        <v>1.045928007569731</v>
       </c>
       <c r="E8">
-        <v>1.047819456860727</v>
+        <v>1.017002878623613</v>
       </c>
       <c r="F8">
-        <v>1.068162166430128</v>
+        <v>1.043514999403374</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047021614484425</v>
+        <v>1.051849844382323</v>
       </c>
       <c r="J8">
-        <v>1.055756759506768</v>
+        <v>1.034214985717519</v>
       </c>
       <c r="K8">
-        <v>1.064049416034929</v>
+        <v>1.056519818310639</v>
       </c>
       <c r="L8">
-        <v>1.050518349697924</v>
+        <v>1.02795735711678</v>
       </c>
       <c r="M8">
-        <v>1.070806735476143</v>
+        <v>1.054136109273228</v>
       </c>
       <c r="N8">
-        <v>1.057256055202261</v>
+        <v>1.035683689623354</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047635108630005</v>
+        <v>0.9963307698585615</v>
       </c>
       <c r="D9">
-        <v>1.059237087622264</v>
+        <v>1.034901795167285</v>
       </c>
       <c r="E9">
-        <v>1.045054143650787</v>
+        <v>1.0031918104197</v>
       </c>
       <c r="F9">
-        <v>1.065441414623123</v>
+        <v>1.030018543758696</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046115499042419</v>
+        <v>1.046262129675127</v>
       </c>
       <c r="J9">
-        <v>1.053362489897447</v>
+        <v>1.022013766785613</v>
       </c>
       <c r="K9">
-        <v>1.062325680829182</v>
+        <v>1.047452903048976</v>
       </c>
       <c r="L9">
-        <v>1.048187465801651</v>
+        <v>1.016233314120807</v>
       </c>
       <c r="M9">
-        <v>1.068510849922197</v>
+        <v>1.042642666893378</v>
       </c>
       <c r="N9">
-        <v>1.054858385455468</v>
+        <v>1.023465143561066</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045492523133558</v>
+        <v>0.9844416558602835</v>
       </c>
       <c r="D10">
-        <v>1.057800940769615</v>
+        <v>1.027081101633443</v>
       </c>
       <c r="E10">
-        <v>1.043207777050172</v>
+        <v>0.9933682889576987</v>
       </c>
       <c r="F10">
-        <v>1.063626286033895</v>
+        <v>1.020451317971402</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045503280526654</v>
+        <v>1.04222732337208</v>
       </c>
       <c r="J10">
-        <v>1.051759662552449</v>
+        <v>1.013286453045189</v>
       </c>
       <c r="K10">
-        <v>1.061170413710465</v>
+        <v>1.040978027869413</v>
       </c>
       <c r="L10">
-        <v>1.046627819218497</v>
+        <v>1.007858322312044</v>
       </c>
       <c r="M10">
-        <v>1.066975998506249</v>
+        <v>1.034460881135921</v>
       </c>
       <c r="N10">
-        <v>1.053253281911793</v>
+        <v>1.014725436034094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044563636547135</v>
+        <v>0.9790761743890288</v>
       </c>
       <c r="D11">
-        <v>1.05717837183402</v>
+        <v>1.023567823882754</v>
       </c>
       <c r="E11">
-        <v>1.042407565210434</v>
+        <v>0.9889464029141369</v>
       </c>
       <c r="F11">
-        <v>1.062839975953862</v>
+        <v>1.016153943137615</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045236236137125</v>
+        <v>1.040397397501766</v>
       </c>
       <c r="J11">
-        <v>1.051063999581259</v>
+        <v>1.009346080472871</v>
       </c>
       <c r="K11">
-        <v>1.060668699276563</v>
+        <v>1.038058563416231</v>
       </c>
       <c r="L11">
-        <v>1.045951076266761</v>
+        <v>1.004079828475821</v>
       </c>
       <c r="M11">
-        <v>1.066310350221095</v>
+        <v>1.030777516877828</v>
       </c>
       <c r="N11">
-        <v>1.05255663101939</v>
+        <v>1.010779467680756</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044218430823565</v>
+        <v>0.977047657886875</v>
       </c>
       <c r="D12">
-        <v>1.056947013751763</v>
+        <v>1.022242293106258</v>
       </c>
       <c r="E12">
-        <v>1.042110218347023</v>
+        <v>0.9872765050180842</v>
       </c>
       <c r="F12">
-        <v>1.062547850289398</v>
+        <v>1.014532576311598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04513674959626</v>
+        <v>1.039704331738888</v>
       </c>
       <c r="J12">
-        <v>1.050805350861749</v>
+        <v>1.00785619993326</v>
       </c>
       <c r="K12">
-        <v>1.060482116458609</v>
+        <v>1.036955421720136</v>
       </c>
       <c r="L12">
-        <v>1.045699488986054</v>
+        <v>1.002651595334588</v>
       </c>
       <c r="M12">
-        <v>1.066062938752827</v>
+        <v>1.029386552619574</v>
       </c>
       <c r="N12">
-        <v>1.052297614989031</v>
+        <v>1.009287471339888</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04429248667379</v>
+        <v>0.9774844396203018</v>
       </c>
       <c r="D13">
-        <v>1.056996645775589</v>
+        <v>1.022527579195091</v>
       </c>
       <c r="E13">
-        <v>1.042174005415621</v>
+        <v>0.987635981292721</v>
       </c>
       <c r="F13">
-        <v>1.062610514775687</v>
+        <v>1.014881534855956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045158103140796</v>
+        <v>1.039853616486193</v>
       </c>
       <c r="J13">
-        <v>1.050860843198968</v>
+        <v>1.008177007014289</v>
       </c>
       <c r="K13">
-        <v>1.060522149262741</v>
+        <v>1.037192919509809</v>
       </c>
       <c r="L13">
-        <v>1.04575346509115</v>
+        <v>1.002959108071035</v>
       </c>
       <c r="M13">
-        <v>1.066116016638817</v>
+        <v>1.029685979856257</v>
       </c>
       <c r="N13">
-        <v>1.052353186131734</v>
+        <v>1.009608734003769</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044535105355307</v>
+        <v>0.978909239378929</v>
       </c>
       <c r="D14">
-        <v>1.057159249922338</v>
+        <v>1.023458683329049</v>
       </c>
       <c r="E14">
-        <v>1.042382988744974</v>
+        <v>0.9888089410802704</v>
       </c>
       <c r="F14">
-        <v>1.062815829895939</v>
+        <v>1.016020444778696</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04522801856192</v>
+        <v>1.040340386408541</v>
       </c>
       <c r="J14">
-        <v>1.051042624689768</v>
+        <v>1.009223474411737</v>
       </c>
       <c r="K14">
-        <v>1.060653280858229</v>
+        <v>1.037967767508303</v>
       </c>
       <c r="L14">
-        <v>1.045930284386897</v>
+        <v>1.003962286497517</v>
       </c>
       <c r="M14">
-        <v>1.066289902392647</v>
+        <v>1.030663014791802</v>
       </c>
       <c r="N14">
-        <v>1.052535225773102</v>
+        <v>1.010656687504953</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044684567255428</v>
+        <v>0.9797823046699795</v>
       </c>
       <c r="D15">
-        <v>1.057259421300896</v>
+        <v>1.024029598013082</v>
       </c>
       <c r="E15">
-        <v>1.042511735238223</v>
+        <v>0.9895279397670343</v>
       </c>
       <c r="F15">
-        <v>1.062942323930897</v>
+        <v>1.01671877465847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04527105671104</v>
+        <v>1.040638503591506</v>
       </c>
       <c r="J15">
-        <v>1.051154593217604</v>
+        <v>1.009864695122473</v>
       </c>
       <c r="K15">
-        <v>1.060734045655613</v>
+        <v>1.038442653841917</v>
       </c>
       <c r="L15">
-        <v>1.046039200016663</v>
+        <v>1.004577040430801</v>
       </c>
       <c r="M15">
-        <v>1.066397017854852</v>
+        <v>1.031261923861905</v>
       </c>
       <c r="N15">
-        <v>1.052647353309089</v>
+        <v>1.011298818822647</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045554145923651</v>
+        <v>0.9847929268442212</v>
       </c>
       <c r="D16">
-        <v>1.057842243542784</v>
+        <v>1.027311470504464</v>
       </c>
       <c r="E16">
-        <v>1.043260868907142</v>
+        <v>0.9936580335454769</v>
       </c>
       <c r="F16">
-        <v>1.063678463277866</v>
+        <v>1.020733104746988</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045520962182018</v>
+        <v>1.042346949421109</v>
       </c>
       <c r="J16">
-        <v>1.051805796776488</v>
+        <v>1.013544396496548</v>
       </c>
       <c r="K16">
-        <v>1.061203679577034</v>
+        <v>1.041169233567696</v>
       </c>
       <c r="L16">
-        <v>1.046672702493968</v>
+        <v>1.00810572853817</v>
       </c>
       <c r="M16">
-        <v>1.06702015309256</v>
+        <v>1.034702232874861</v>
       </c>
       <c r="N16">
-        <v>1.053299481651722</v>
+        <v>1.01498374579474</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046099302331463</v>
+        <v>0.9878758242208677</v>
       </c>
       <c r="D17">
-        <v>1.058207641675963</v>
+        <v>1.029335140049827</v>
       </c>
       <c r="E17">
-        <v>1.043730584340429</v>
+        <v>0.9962022569853427</v>
       </c>
       <c r="F17">
-        <v>1.064140128988907</v>
+        <v>1.02320850098455</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045677198269091</v>
+        <v>1.043395828771728</v>
       </c>
       <c r="J17">
-        <v>1.05221384090994</v>
+        <v>1.015808023854929</v>
       </c>
       <c r="K17">
-        <v>1.061497871939126</v>
+        <v>1.042847651796038</v>
       </c>
       <c r="L17">
-        <v>1.047069702962909</v>
+        <v>1.010277203678604</v>
       </c>
       <c r="M17">
-        <v>1.067410747031028</v>
+        <v>1.036821480512751</v>
       </c>
       <c r="N17">
-        <v>1.053708105254646</v>
+        <v>1.017250587763612</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046417173915474</v>
+        <v>0.9896532596691545</v>
       </c>
       <c r="D18">
-        <v>1.058420704056576</v>
+        <v>1.030503379945515</v>
       </c>
       <c r="E18">
-        <v>1.044004491923297</v>
+        <v>0.9976701837753481</v>
       </c>
       <c r="F18">
-        <v>1.064409377463675</v>
+        <v>1.024637569265054</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045768140112615</v>
+        <v>1.04399969698624</v>
       </c>
       <c r="J18">
-        <v>1.052451689321922</v>
+        <v>1.017112934796504</v>
       </c>
       <c r="K18">
-        <v>1.061669327073935</v>
+        <v>1.043815568597915</v>
       </c>
       <c r="L18">
-        <v>1.047301131237981</v>
+        <v>1.011529254431818</v>
       </c>
       <c r="M18">
-        <v>1.067638472982176</v>
+        <v>1.038044158873939</v>
       </c>
       <c r="N18">
-        <v>1.053946291438655</v>
+        <v>1.0185573518284</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046525541606415</v>
+        <v>0.9902558787193129</v>
       </c>
       <c r="D19">
-        <v>1.058493341316927</v>
+        <v>1.030899704121745</v>
       </c>
       <c r="E19">
-        <v>1.044097875663897</v>
+        <v>0.9981680431315426</v>
       </c>
       <c r="F19">
-        <v>1.064501178670109</v>
+        <v>1.025122390211291</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045799117082406</v>
+        <v>1.044204282031612</v>
       </c>
       <c r="J19">
-        <v>1.052532763000692</v>
+        <v>1.017555316579121</v>
       </c>
       <c r="K19">
-        <v>1.061727764767672</v>
+        <v>1.044143762372246</v>
       </c>
       <c r="L19">
-        <v>1.047380019445144</v>
+        <v>1.01195375997084</v>
       </c>
       <c r="M19">
-        <v>1.067716104615249</v>
+        <v>1.038458828325065</v>
       </c>
       <c r="N19">
-        <v>1.054027480251348</v>
+        <v>1.01900036184389</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04604082351754</v>
+        <v>0.9875472261676255</v>
       </c>
       <c r="D20">
-        <v>1.05816844498009</v>
+        <v>1.029119284558434</v>
       </c>
       <c r="E20">
-        <v>1.043680195536513</v>
+        <v>0.9959309633380053</v>
       </c>
       <c r="F20">
-        <v>1.064090600096205</v>
+        <v>1.022944457012932</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045660455074593</v>
+        <v>1.043284119922755</v>
       </c>
       <c r="J20">
-        <v>1.052170077887001</v>
+        <v>1.015566767247836</v>
       </c>
       <c r="K20">
-        <v>1.061466322615926</v>
+        <v>1.042668728168142</v>
       </c>
       <c r="L20">
-        <v>1.04702712260035</v>
+        <v>1.010045741202033</v>
       </c>
       <c r="M20">
-        <v>1.067368850453435</v>
+        <v>1.036595507276508</v>
       </c>
       <c r="N20">
-        <v>1.053664280083195</v>
+        <v>1.017008988544465</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044463665101776</v>
+        <v>0.9784906771778565</v>
       </c>
       <c r="D21">
-        <v>1.057111370057839</v>
+        <v>1.023185076195423</v>
       </c>
       <c r="E21">
-        <v>1.042321451502173</v>
+        <v>0.9884643087857753</v>
       </c>
       <c r="F21">
-        <v>1.062755371254466</v>
+        <v>1.015685774148688</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045207438350493</v>
+        <v>1.040197421114321</v>
       </c>
       <c r="J21">
-        <v>1.050989101463288</v>
+        <v>1.008916057765123</v>
       </c>
       <c r="K21">
-        <v>1.060614672063841</v>
+        <v>1.037740122312285</v>
       </c>
       <c r="L21">
-        <v>1.045878221470622</v>
+        <v>1.003667574436133</v>
       </c>
       <c r="M21">
-        <v>1.066238701812128</v>
+        <v>1.030375946124282</v>
       </c>
       <c r="N21">
-        <v>1.0524816265375</v>
+        <v>1.010348834291438</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043471022551425</v>
+        <v>0.9725891697953711</v>
       </c>
       <c r="D22">
-        <v>1.056446117784541</v>
+        <v>1.019334288123422</v>
       </c>
       <c r="E22">
-        <v>1.041466502011022</v>
+        <v>0.9836098787471199</v>
       </c>
       <c r="F22">
-        <v>1.061915539704787</v>
+        <v>1.010975457887272</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044920904935527</v>
+        <v>1.038178925565419</v>
       </c>
       <c r="J22">
-        <v>1.050245134917527</v>
+        <v>1.004581442932623</v>
       </c>
       <c r="K22">
-        <v>1.060077910096316</v>
+        <v>1.034532218867872</v>
       </c>
       <c r="L22">
-        <v>1.045154617058369</v>
+        <v>0.999513172860391</v>
       </c>
       <c r="M22">
-        <v>1.065527205123488</v>
+        <v>1.026332579914849</v>
       </c>
       <c r="N22">
-        <v>1.05173660347391</v>
+        <v>1.006008063808689</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043997339778032</v>
+        <v>0.975738372118478</v>
       </c>
       <c r="D23">
-        <v>1.056798840705002</v>
+        <v>1.021387551272067</v>
       </c>
       <c r="E23">
-        <v>1.041919790149747</v>
+        <v>0.9861992363909139</v>
       </c>
       <c r="F23">
-        <v>1.062360781619238</v>
+        <v>1.013487059601629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045072963704943</v>
+        <v>1.039256670017032</v>
       </c>
       <c r="J23">
-        <v>1.050639663444488</v>
+        <v>1.006894544221711</v>
       </c>
       <c r="K23">
-        <v>1.060362581224843</v>
+        <v>1.036243612809157</v>
       </c>
       <c r="L23">
-        <v>1.045538332644497</v>
+        <v>1.001729856961092</v>
       </c>
       <c r="M23">
-        <v>1.065904471784832</v>
+        <v>1.02848925135969</v>
       </c>
       <c r="N23">
-        <v>1.052131692276633</v>
+        <v>1.008324449966925</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046067247912584</v>
+        <v>0.9876957694451256</v>
       </c>
       <c r="D24">
-        <v>1.058186156490395</v>
+        <v>1.029216857746587</v>
       </c>
       <c r="E24">
-        <v>1.043702964282554</v>
+        <v>0.9960535987801328</v>
       </c>
       <c r="F24">
-        <v>1.064112980173785</v>
+        <v>1.023063812679335</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045668021184396</v>
+        <v>1.04333462076778</v>
       </c>
       <c r="J24">
-        <v>1.052189852997679</v>
+        <v>1.015675828242002</v>
       </c>
       <c r="K24">
-        <v>1.061480578836685</v>
+        <v>1.042749610184553</v>
       </c>
       <c r="L24">
-        <v>1.04704636325147</v>
+        <v>1.010150373906638</v>
       </c>
       <c r="M24">
-        <v>1.067387782025087</v>
+        <v>1.03669765627383</v>
       </c>
       <c r="N24">
-        <v>1.053684083276799</v>
+        <v>1.017118204417751</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048465007932631</v>
+        <v>1.000764574487718</v>
       </c>
       <c r="D25">
-        <v>1.05979339163353</v>
+        <v>1.037830380635083</v>
       </c>
       <c r="E25">
-        <v>1.045769526631682</v>
+        <v>1.006864076942797</v>
       </c>
       <c r="F25">
-        <v>1.066145011804363</v>
+        <v>1.033602025933438</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046351181468193</v>
+        <v>1.047758367920317</v>
       </c>
       <c r="J25">
-        <v>1.05398262320949</v>
+        <v>1.025266235019753</v>
       </c>
       <c r="K25">
-        <v>1.062772377710316</v>
+        <v>1.049868500292086</v>
       </c>
       <c r="L25">
-        <v>1.048791050651567</v>
+        <v>1.019356763325731</v>
       </c>
       <c r="M25">
-        <v>1.069105132721935</v>
+        <v>1.045700183075655</v>
       </c>
       <c r="N25">
-        <v>1.055479399427945</v>
+        <v>1.026722230673162</v>
       </c>
     </row>
   </sheetData>
